--- a/ENS_215/Data/Class_survey_2025.xlsx
+++ b/ENS_215/Data/Class_survey_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stahlm\Documents\Teaching_UnionCollege\Environmental_Data_Analysis\stahlm.github.io\ENS_215\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E033986F-9F13-4BFE-943F-C9B65DC85F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF98624-7DA8-4EE4-A0FC-19893529485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Topic</t>
   </si>
@@ -219,25 +219,19 @@
     <t>count</t>
   </si>
   <si>
-    <t>BIO</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>ECON</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>POL SCI</t>
-  </si>
-  <si>
-    <t>PSYC</t>
-  </si>
-  <si>
     <t>R/Rstudio</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>CHEM</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
   </si>
 </sst>
 </file>
@@ -564,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +579,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,12 +598,12 @@
         <v>65</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -617,25 +611,9 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -648,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +646,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -679,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +687,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
